--- a/실무_엑셀_예제_파일/Chapter02/02-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-006.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78CCC2-D56C-477B-B5E6-F2D868E12479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAECB4F-A122-47E2-91A3-673037FAC323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2565" windowWidth="16440" windowHeight="29040" xr2:uid="{C7AC84A3-8E37-4DD1-8C77-DA7E32000136}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{C7AC84A3-8E37-4DD1-8C77-DA7E32000136}"/>
   </bookViews>
   <sheets>
     <sheet name="천만리자전거-1" sheetId="1" r:id="rId1"/>
     <sheet name="천만리자전거-2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -133,6 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0,,"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,28 +405,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,7 +432,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +452,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,60 +800,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534EE80D-2DF1-4446-AB7E-F00D0AEA2842}">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="9" width="12.125" customWidth="1"/>
+    <col min="4" max="9" width="12.08203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
+    <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
@@ -863,262 +874,267 @@
       <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
-        <v>21940000</v>
-      </c>
-      <c r="E6" s="12">
-        <v>12780000</v>
-      </c>
-      <c r="F6" s="13">
-        <v>26200000</v>
-      </c>
-      <c r="G6" s="14">
-        <v>29430000</v>
-      </c>
-      <c r="H6" s="12">
-        <v>11110000</v>
-      </c>
-      <c r="I6" s="15">
-        <v>23740000</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="D6" s="24">
+        <v>2.194</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1.278</v>
+      </c>
+      <c r="F6" s="26">
+        <v>2.62</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1.111</v>
+      </c>
+      <c r="I6" s="28">
+        <v>2.3740000000000001</v>
+      </c>
+      <c r="J6" s="8">
         <f>SUM(D6:I6)</f>
-        <v>125200000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+        <v>12.520000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
-        <v>12540000</v>
-      </c>
-      <c r="E7" s="12">
-        <v>21300000</v>
-      </c>
-      <c r="F7" s="13">
-        <v>22930000</v>
-      </c>
-      <c r="G7" s="14">
-        <v>23840000</v>
-      </c>
-      <c r="H7" s="12">
-        <v>21230000.000000004</v>
-      </c>
-      <c r="I7" s="15">
-        <v>14210000</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="D7" s="24">
+        <v>1.254</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2.13</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1.421</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" ref="J7:J14" si="0">SUM(D7:I7)</f>
-        <v>116050000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+        <v>11.605</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11">
-        <v>15980000</v>
-      </c>
-      <c r="E8" s="12">
-        <v>11010000</v>
-      </c>
-      <c r="F8" s="13">
-        <v>16299999.999999998</v>
-      </c>
-      <c r="G8" s="14">
-        <v>22879999.999999996</v>
-      </c>
-      <c r="H8" s="12">
-        <v>18780000</v>
-      </c>
-      <c r="I8" s="15">
-        <v>24220000</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="D8" s="24">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1.101</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1.63</v>
+      </c>
+      <c r="G8" s="27">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>109170000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+        <v>10.917</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
-        <v>25190000</v>
-      </c>
-      <c r="E9" s="12">
-        <v>23610000.000000004</v>
-      </c>
-      <c r="F9" s="13">
-        <v>11600000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>25139999.999999996</v>
-      </c>
-      <c r="H9" s="12">
-        <v>11050000</v>
-      </c>
-      <c r="I9" s="15">
-        <v>19990000</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="D9" s="24">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1.105</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>116580000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+        <v>11.658000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
-        <v>11070000</v>
-      </c>
-      <c r="E10" s="12">
-        <v>29140000</v>
-      </c>
-      <c r="F10" s="13">
-        <v>16190000</v>
-      </c>
-      <c r="G10" s="14">
-        <v>12710000</v>
-      </c>
-      <c r="H10" s="12">
-        <v>26740000</v>
-      </c>
-      <c r="I10" s="15">
-        <v>16140000.000000002</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="D10" s="24">
+        <v>1.107</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1.619</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>111990000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+        <v>11.199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
-        <v>15980000</v>
-      </c>
-      <c r="E11" s="12">
-        <v>29720000</v>
-      </c>
-      <c r="F11" s="13">
-        <v>24910000</v>
-      </c>
-      <c r="G11" s="14">
-        <v>17580000</v>
-      </c>
-      <c r="H11" s="12">
-        <v>29710000</v>
-      </c>
-      <c r="I11" s="15">
-        <v>16130000</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="D11" s="24">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2.972</v>
+      </c>
+      <c r="F11" s="26">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1.758</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="I11" s="28">
+        <v>1.613</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>134030000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+        <v>13.402999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
-        <v>14740000</v>
-      </c>
-      <c r="E12" s="12">
-        <v>26050000</v>
-      </c>
-      <c r="F12" s="13">
-        <v>15109999.999999998</v>
-      </c>
-      <c r="G12" s="14">
-        <v>17680000</v>
-      </c>
-      <c r="H12" s="12">
-        <v>13690000</v>
-      </c>
-      <c r="I12" s="15">
-        <v>13550000</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="D12" s="24">
+        <v>1.474</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2.605</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1.768</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1.369</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.355</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>100820000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+        <v>10.082000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
-        <v>16439999.999999998</v>
-      </c>
-      <c r="E13" s="12">
-        <v>21090000</v>
-      </c>
-      <c r="F13" s="13">
-        <v>14000000</v>
-      </c>
-      <c r="G13" s="14">
-        <v>25950000.000000004</v>
-      </c>
-      <c r="H13" s="12">
-        <v>26000000</v>
-      </c>
-      <c r="I13" s="15">
-        <v>20540000</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="D13" s="24">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2.109</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="27">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2.6</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="0"/>
-        <v>124020000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+        <v>12.402000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11">
-        <v>29680000</v>
-      </c>
-      <c r="E14" s="12">
-        <v>27990000</v>
-      </c>
-      <c r="F14" s="13">
-        <v>23220000</v>
-      </c>
-      <c r="G14" s="14">
-        <v>29900000.000000004</v>
-      </c>
-      <c r="H14" s="12">
-        <v>17150000</v>
-      </c>
-      <c r="I14" s="15">
-        <v>16780000</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="D14" s="24">
+        <v>2.968</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="G14" s="27">
+        <v>2.99</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="0"/>
-        <v>144720000</v>
+        <v>14.471999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F16" s="9">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
@@ -1141,59 +1157,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846AB0D4-8C61-4192-ABD9-3314ECC30098}">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="D6:J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="9" width="12.125" customWidth="1"/>
+    <col min="4" max="9" width="12.08203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1208,263 +1226,263 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="29">
         <v>21940000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="30">
         <v>12780000</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="31">
         <v>26200000</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="32">
         <v>29430000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="30">
         <v>11110000</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="33">
         <v>23740000</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="34">
         <f>SUM(D6:I6)</f>
         <v>125200000</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="29">
         <v>12540000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="30">
         <v>21300000</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="31">
         <v>22930000</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="32">
         <v>23840000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="30">
         <v>21230000.000000004</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="33">
         <v>14210000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="34">
         <f t="shared" ref="J7:J14" si="0">SUM(D7:I7)</f>
         <v>116050000</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="29">
         <v>15980000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="30">
         <v>11010000</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="31">
         <v>16299999.999999998</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="32">
         <v>22879999.999999996</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="30">
         <v>18780000</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="33">
         <v>24220000</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>109170000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="29">
         <v>25190000</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="30">
         <v>23610000.000000004</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="31">
         <v>11600000</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="32">
         <v>25139999.999999996</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="30">
         <v>11050000</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="33">
         <v>19990000</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="34">
         <f t="shared" si="0"/>
         <v>116580000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="29">
         <v>11070000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="30">
         <v>29140000</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="31">
         <v>16190000</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="32">
         <v>12710000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="30">
         <v>26740000</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="33">
         <v>16140000.000000002</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="34">
         <f t="shared" si="0"/>
         <v>111990000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="29">
         <v>15980000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="30">
         <v>29720000</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="31">
         <v>24910000</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="32">
         <v>17580000</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="30">
         <v>29710000</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="33">
         <v>16130000</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="34">
         <f t="shared" si="0"/>
         <v>134030000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="29">
         <v>14740000</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="30">
         <v>26050000</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="31">
         <v>15109999.999999998</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="32">
         <v>17680000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="30">
         <v>13690000</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="33">
         <v>13550000</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="34">
         <f t="shared" si="0"/>
         <v>100820000</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="29">
         <v>16439999.999999998</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="30">
         <v>21090000</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="31">
         <v>14000000</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="32">
         <v>25950000.000000004</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="30">
         <v>26000000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="33">
         <v>20540000</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="34">
         <f t="shared" si="0"/>
         <v>124020000</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="29">
         <v>29680000</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="30">
         <v>27990000</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="31">
         <v>23220000</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="32">
         <v>29900000.000000004</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="30">
         <v>17150000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="33">
         <v>16780000</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="34">
         <f t="shared" si="0"/>
         <v>144720000</v>
       </c>
